--- a/pra_bioinformatics/test.xlsx
+++ b/pra_bioinformatics/test.xlsx
@@ -1,57 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>전처리기 타입</t>
-  </si>
-  <si>
-    <t>특징 선택 타입</t>
-  </si>
-  <si>
-    <t>분류기 타입</t>
-  </si>
-  <si>
-    <t>결과값</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>heart.train.xlsx</t>
+  </si>
+  <si>
+    <t>전처리기</t>
+  </si>
+  <si>
+    <t>특징 선택</t>
+  </si>
+  <si>
+    <t>분류기</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision 1</t>
+  </si>
+  <si>
+    <t>Precision 2</t>
+  </si>
+  <si>
+    <t>Recall 1</t>
+  </si>
+  <si>
+    <t>Recall 2</t>
+  </si>
+  <si>
+    <t>fbeta score 1</t>
+  </si>
+  <si>
+    <t>fbeta score 2</t>
+  </si>
+  <si>
+    <t>Support 1</t>
+  </si>
+  <si>
+    <t>Support 2</t>
+  </si>
+  <si>
+    <t>min-max</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>standard_norm</t>
+  </si>
+  <si>
+    <t>PCC</t>
+  </si>
+  <si>
+    <t>Naive_bayes</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,19 +131,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -382,28 +430,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56</v>
+      </c>
+      <c r="M2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>56</v>
+      </c>
+      <c r="M4" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/pra_bioinformatics/test.xlsx
+++ b/pra_bioinformatics/test.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="heart.train.xlsx" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>heart.train.xlsx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>전처리기</t>
   </si>
@@ -25,9 +22,15 @@
     <t>특징 선택</t>
   </si>
   <si>
+    <t>PCA 수</t>
+  </si>
+  <si>
     <t>분류기</t>
   </si>
   <si>
+    <t>KNN 개수</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -55,25 +58,25 @@
     <t>Support 2</t>
   </si>
   <si>
-    <t>min-max</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>standard_norm</t>
+    <t>Confusion Mat[0,0]</t>
+  </si>
+  <si>
+    <t>Confusion Mat[0,1]</t>
+  </si>
+  <si>
+    <t>Confusion Mat[1,0]</t>
+  </si>
+  <si>
+    <t>Confusion Mat[1,1]</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>PCC</t>
   </si>
   <si>
     <t>Naive_bayes</t>
-  </si>
-  <si>
-    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,159 +446,119 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:19">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.78</v>
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="H2" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="K2" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N2" t="n">
         <v>56</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>56</v>
-      </c>
-      <c r="M4" t="n">
-        <v>52</v>
+      <c r="P2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/pra_bioinformatics/test.xlsx
+++ b/pra_bioinformatics/test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="heart.train.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="heart.train.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>전처리기</t>
   </si>
@@ -68,42 +68,32 @@
   </si>
   <si>
     <t>Confusion Mat[1,1]</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>PCC</t>
-  </si>
-  <si>
-    <t>Naive_bayes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,18 +124,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -433,20 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,66 +487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N2" t="n">
-        <v>56</v>
-      </c>
-      <c r="O2" t="n">
-        <v>52</v>
-      </c>
-      <c r="P2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S2" t="n">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>